--- a/TestNGEjercicio/Data/DataTest.xlsx
+++ b/TestNGEjercicio/Data/DataTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\ProyectoAutomatizacionWeb\proyectosAutomatizacionTestNG\TestNGEjercicio\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\ProyectoAutomatizacionWeb2\proyectosAutomatizacionTestNG\TestNGEjercicio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D056B-A00A-4113-95BB-0F1977A45882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D8D1EE-1884-4D22-B289-882E7A6572AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4950" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,15 +95,6 @@
     <t>Ortega</t>
   </si>
   <si>
-    <t>3007696014</t>
-  </si>
-  <si>
-    <t>juanortega@cbit-online.com</t>
-  </si>
-  <si>
-    <t>calle 38b sur #86g-52</t>
-  </si>
-  <si>
     <t>Bogota</t>
   </si>
   <si>
@@ -174,6 +165,15 @@
   </si>
   <si>
     <t>Juan Ortega C.</t>
+  </si>
+  <si>
+    <t>3007788909</t>
+  </si>
+  <si>
+    <t>juanortega@evertecinc.co</t>
+  </si>
+  <si>
+    <t>calle 52b sur #87-78</t>
   </si>
 </sst>
 </file>
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,13 +550,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -614,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -759,30 +759,30 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,13 +867,13 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -884,46 +884,46 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -965,45 +965,45 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
